--- a/function_3/steepest_descent_function_3_stepsize_0.1.xlsx
+++ b/function_3/steepest_descent_function_3_stepsize_0.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos\Steepest Descent\function_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C521FA44-DC46-487D-93AF-A80A7E1E06AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948FF23C-B960-40F5-9C41-206E83FD56B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1142,7 +1142,7 @@
                 </a:solidFill>
                 <a:effectLst/>
               </a:rPr>
-              <a:t>∇ f vs k</a:t>
+              <a:t>||∇ f || vs k</a:t>
             </a:r>
             <a:endParaRPr lang="es-GT" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
